--- a/biology/Botanique/Acrodon/Acrodon.xlsx
+++ b/biology/Botanique/Acrodon/Acrodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrodon N.E.Br. est un genre de plante dicotylédone de la famille des Aizoaceae, originaire d'Afrique australe.
 Le terme Acrodon peut signifier soit « à dent pointue » et se réfère dans ce cas à l'aspect des marges et carènes foliaires, soit « à dent à la pointe » et se réfère alors à l'acumen foliaire.
@@ -512,7 +524,9 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrodon N.E.Br., in Gard. Chron., ser. 3. 81: 12 (1927), in clave
 Type : Acrodon bellidiflorus (L.) N.E.Br (Mesembryanthemum bellidiflorum L.)
@@ -544,7 +558,9 @@
           <t>Caractères généraux [1],[2],[3],[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les membres du genre Acrodon sont des plantes vivaces en touffe ramifiée à port bas ou tapissant.
 Phyllotaxie : opposée-décussée ; entrenœuds courts.
@@ -580,10 +596,12 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Typologie : chamaephyte ; xérophyte.
-Habitat : régions côtières ; zones sèches du fynbos[3].
+Habitat : régions côtières ; zones sèches du fynbos.
 Altitude : ?</t>
         </is>
       </c>
@@ -612,11 +630,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Afrique du Sud
-Western Cape (bande côtière)[2]
-Eastern Cape (bande côtière)[2]</t>
+Western Cape (bande côtière)
+Eastern Cape (bande côtière)</t>
         </is>
       </c>
     </row>
@@ -644,11 +664,13 @@
           <t>Mise en culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres du genre Acrodon sont des plantes de culture facile, appréciant les arrosages fréquents tout en tolérant parfaitement la sécheresse prolongée[4].
-Multiplication facile par semis[2].
-L'hybridation extragénérique (y compris avec Marlothistella) ne semble pas possible[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres du genre Acrodon sont des plantes de culture facile, appréciant les arrosages fréquents tout en tolérant parfaitement la sécheresse prolongée.
+Multiplication facile par semis.
+L'hybridation extragénérique (y compris avec Marlothistella) ne semble pas possible.
 </t>
         </is>
       </c>
@@ -677,7 +699,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Acrodon bellidiflorus N.E.Br.
 Acrodon deminutus Klak
